--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed3/result_data_KNN.xlsx
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.614</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.36</v>
+        <v>16.419</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.614</v>
+        <v>17.792</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.596</v>
+        <v>16.593</v>
       </c>
     </row>
     <row r="19">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.5</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="38">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.676</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="56">
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.504</v>
+        <v>17.421</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.98</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.38</v>
+        <v>16.542</v>
       </c>
     </row>
     <row r="79">
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.936</v>
+        <v>16.477</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.464</v>
+        <v>16.776</v>
       </c>
     </row>
     <row r="83">
